--- a/journal_links_db.xlsx
+++ b/journal_links_db.xlsx
@@ -11,19 +11,16 @@
     <sheet name="ct" sheetId="2" r:id="rId2"/>
     <sheet name="br" sheetId="3" r:id="rId3"/>
     <sheet name="gu" sheetId="4" r:id="rId4"/>
-    <sheet name="er" sheetId="5" r:id="rId5"/>
-    <sheet name="bq" sheetId="6" r:id="rId6"/>
-    <sheet name="sq" sheetId="7" r:id="rId7"/>
-    <sheet name="pr" sheetId="8" r:id="rId8"/>
-    <sheet name="nm" sheetId="9" r:id="rId9"/>
-    <sheet name="ch" sheetId="10" r:id="rId10"/>
+    <sheet name="us" sheetId="5" r:id="rId5"/>
+    <sheet name="ch" sheetId="6" r:id="rId6"/>
+    <sheet name="ir" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="657">
   <si>
     <t>link</t>
   </si>
@@ -43,9 +40,6 @@
     <t>https://doi.org/10.1148/radiol.220505</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.222263</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.09081698</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>https://doi.org/10.1148/radiol.10091531</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.10091608</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.10091671</t>
   </si>
   <si>
@@ -172,15 +163,9 @@
     <t>https://doi.org/10.1148/radiol.11081511</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.11101082</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.11101094</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.11101104</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.11101164</t>
   </si>
   <si>
@@ -190,15 +175,9 @@
     <t>https://doi.org/10.1148/radiol.11101301</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.11101359</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.11101392</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.11101410</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.11101644</t>
   </si>
   <si>
@@ -226,9 +205,6 @@
     <t>https://doi.org/10.1148/radiol.11102357</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.11102412</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.11102458</t>
   </si>
   <si>
@@ -274,15 +250,6 @@
     <t>https://doi.org/10.1148/radiol.11111261</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.12101436</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12102044</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12102051</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.12102426</t>
   </si>
   <si>
@@ -292,18 +259,6 @@
     <t>https://doi.org/10.1148/radiol.12110066</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.12110339</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12110357</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12110462</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12110526</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.12110779</t>
   </si>
   <si>
@@ -328,6 +283,48 @@
     <t>https://doi.org/10.1148/radiol.12111403</t>
   </si>
   <si>
+    <t>https://doi.org/10.1148/radiol.12111439</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111649</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111740</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111883</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111903</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111915</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111920</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111930</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112007</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112062</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112152</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112171</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112215</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112217</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1148/radiol.210482</t>
   </si>
   <si>
@@ -385,42 +382,12 @@
     <t>https://doi.org/10.1148/radiol.220574</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.220964</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.221052</t>
   </si>
   <si>
     <t>https://doi.org/10.1148/radiol.221172</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.221381</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.221471</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.221477</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.221978</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.222012</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.222126</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.222162</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.222274</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.222406</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.10090947</t>
   </si>
   <si>
@@ -439,9 +406,6 @@
     <t>https://doi.org/10.1148/radiol.10100760</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.11092149</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.11100978</t>
   </si>
   <si>
@@ -490,12 +454,6 @@
     <t>https://doi.org/10.1148/radiol.12110268</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.12110810</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12110853</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.12111270</t>
   </si>
   <si>
@@ -505,9 +463,6 @@
     <t>https://doi.org/10.1148/radiol.12112077</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.12112134</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.12112201</t>
   </si>
   <si>
@@ -526,9 +481,6 @@
     <t>https://doi.org/10.1148/radiol.12112458</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.12112512</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.12112516</t>
   </si>
   <si>
@@ -544,9 +496,6 @@
     <t>https://doi.org/10.1148/radiol.12120195</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.12120354</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.12120414</t>
   </si>
   <si>
@@ -562,18 +511,9 @@
     <t>https://doi.org/10.1148/radiol.12121114</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.12121137</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12121248</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.12121324</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.12121355</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.12121394</t>
   </si>
   <si>
@@ -583,12 +523,6 @@
     <t>https://doi.org/10.1148/radiol.12121527</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.12121919</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13111196</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.13112460</t>
   </si>
   <si>
@@ -604,24 +538,87 @@
     <t>https://doi.org/10.1148/radiol.13120730</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.13120733</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.13120865</t>
   </si>
   <si>
     <t>https://doi.org/10.1148/radiol.13120907</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.13120908</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13121059</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.13121104</t>
   </si>
   <si>
+    <t>https://doi.org/10.1148/radiol.13121136</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121351</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121370</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121415</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121440</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121593</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121632</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121824</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121849</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122015</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122019</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122083</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122089</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122128</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122195</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122276</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122320</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122321</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122349</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122398</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122462</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122501</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122529</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122633</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1148/radiol.210966</t>
   </si>
   <si>
@@ -655,33 +652,6 @@
     <t>https://doi.org/10.1148/radiol.221153</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.221329</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.221511</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.221871</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.221901</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.221960</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.222129</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.222178</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.222184</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.222405</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.09090838</t>
   </si>
   <si>
@@ -919,7 +889,34 @@
     <t>https://doi.org/10.1148/radiol.12120552</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.211658</t>
+    <t>https://doi.org/10.1148/radiol.12120621</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120629</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120674</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12121084</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12121216</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12121373</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13120121</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13120919</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121101</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121388</t>
   </si>
   <si>
     <t>https://doi.org/10.1148/radiol.211895</t>
@@ -946,18 +943,6 @@
     <t>https://doi.org/10.1148/radiol.220919</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.221398</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.221452</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.221536</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.221798</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.09082074</t>
   </si>
   <si>
@@ -976,9 +961,6 @@
     <t>https://doi.org/10.1148/radiol.09091109</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.10090397</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.10090977</t>
   </si>
   <si>
@@ -1027,9 +1009,6 @@
     <t>https://doi.org/10.1148/radiol.10092314</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.10092367</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.10092396</t>
   </si>
   <si>
@@ -1087,21 +1066,9 @@
     <t>https://doi.org/10.1148/radiol.10101329</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.11091150</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11091151</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11091207</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.11091409</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.11091822</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.11100569</t>
   </si>
   <si>
@@ -1126,9 +1093,6 @@
     <t>https://doi.org/10.1148/radiol.11101664</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.11101996</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.11102023</t>
   </si>
   <si>
@@ -1186,15 +1150,9 @@
     <t>https://doi.org/10.1148/radiol.11111074</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.11111595</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.12102294</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.12110446</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1148/radiol.12110548</t>
   </si>
   <si>
@@ -1213,1153 +1171,826 @@
     <t>https://doi.org/10.1148/radiol.12111327</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.10100534</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11100604</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11101956</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11102338</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11110326</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12111896</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12120614</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13121242</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13121260</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13121370</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13130972</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14140253</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14141060</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015142282</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015150473</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015151509</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015152335</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016151691</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016151946</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016151985</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016152021</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017160107</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017162352</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018170997</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018171838</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018172915</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018180413</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018180492</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018181534</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019180801</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019181650</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019181959</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019182806</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190006</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190056</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190057</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190218</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190812</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019191225</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019192079</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021202917</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021204053</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.09091134</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10090050</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10091732</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10092419</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100362</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100376</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100579</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100672</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100881</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10101079</t>
+    <t>https://doi.org/10.1148/radiol.12111430</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111533</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111601</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111623</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111634</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111667</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111683</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111732</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111744</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112100</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112260</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112263</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112290</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112338</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112374</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.212609</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.212846</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.220104</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.09090001</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.09090992</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.09091284</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10090385</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10090699</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10091365</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10091662</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10091772</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10091793</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100013</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100157</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100273</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100681</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100859</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10101008</t>
   </si>
   <si>
     <t>https://doi.org/10.1148/radiol.10101339</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.11101139</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11101362</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11101608</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11102251</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11102350</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11110040</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11110199</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11110323</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11111569</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12110433</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12110673</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12111222</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12111504</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12111593</t>
+    <t>https://doi.org/10.1148/radiol.11101454</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11101866</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11101893</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11102257</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11102439</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110156</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110206</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110334</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110440</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110475</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110670</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110839</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110968</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11111094</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111046</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111528</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112000</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112042</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112440</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112710</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120201</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120557</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120837</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121724</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121769</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121775</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121936</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121994</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121999</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122208</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122247</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122829</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122901</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13130128</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13130161</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13130401</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13130561</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13131203</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13131334</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13132002</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14130818</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14131164</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14131251</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132000</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132134</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132206</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132363</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132404</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132415</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132438</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132443</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132718</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132832</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132952</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14140008</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14140017</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14140088</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14140318</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14140359</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14140474</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14140567</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14140568</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14140828</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14140839</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14140911</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14141210</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14141929</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.15141492</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.15142308</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.16151414</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.212213</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.212482</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.09090031</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.09090039</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.09090547</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.09090571</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.09090733</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.09090860</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.09091308</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.09091556</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.0990898</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10081220</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10090890</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10090924</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10090946</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10091010</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10091446</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10091447</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10091487</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10091502</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10091624</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10091808</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10091937</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10092240</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10092437</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10092440</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100054</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100163</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100181</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100219</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100245</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100303</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100383</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100485</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100636</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100722</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100771</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100986</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10101006</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10101090</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10101254</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11100153</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11100600</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11100878</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11101372</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11101450</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11101503</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11101575</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11101643</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11102172</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11102226</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11102231</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11102313</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11103506</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11103532</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110053</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110173</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110192</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110281</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110372</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110403</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110447</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110542</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11111463</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12102489</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12103540</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12110224</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12110802</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12110872</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12110990</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111148</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111211</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111337</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111374</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111459</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111505</t>
   </si>
   <si>
     <t>https://doi.org/10.1148/radiol.12111793</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.12111957</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12112393</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12120128</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12120319</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13120145</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13122056</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13122697</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13130858</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13131725</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14131165</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14131332</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14132470</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14132475</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14132735</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14140283</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14140322</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14140568</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14141159</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015142202</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015150315</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016160143</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016160839</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017171766</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017172258</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018181037</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018181349</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019181073</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019182391</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190173</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190377</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019191882</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019192409</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020191152</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020191160</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020191529</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020191689</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020192607</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021202771</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021210348</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.211597</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.213107</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100063</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12120062</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12120527</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12121502</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13121720</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13122349</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13122578</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13130273</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13131114</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13131184</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13131614</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14131730</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14131930</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14132328</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14132931</t>
+    <t>https://doi.org/10.1148/radiol.12111873</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111942</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112428</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112613</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112789</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120385</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120485</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120628</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120864</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120933</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.220357</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10092487</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100631</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10100690</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10101058</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.10101072</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11101307</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11101357</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11101489</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11101985</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11103523</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110015</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110043</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110282</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110333</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110416</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.11110637</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12110530</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12110978</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111209</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111300</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111383</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111550</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12111707</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12112142</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120117</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120198</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120297</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120372</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120424</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120486</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120517</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120609</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120856</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12120859</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.12121070</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13120249</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13120800</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121291</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121462</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121498</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13121794</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122102</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122134</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122184</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122803</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13122834</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13130221</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13130349</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13130380</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13130387</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13130498</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13130753</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13130796</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13130866</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13130940</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13131265</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.13131760</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14131640</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14131664</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14131909</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14131946</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14131959</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14131969</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132041</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132271</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132548</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14132560</t>
   </si>
   <si>
     <t>https://doi.org/10.1148/radiol.14132958</t>
   </si>
   <si>
-    <t>https://doi.org/10.1148/radiol.14141227</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14141352</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14141645</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.15132905</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.16142770</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015141262</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015141520</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015142423</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015142530</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015142690</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015142859</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015150289</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015150516</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015151108</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015151187</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016151173</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016152188</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016152472</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016160519</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016160749</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016161254</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016161764</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017161306</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017161911</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017162740</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017170019</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017170103</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017170346</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017170555</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017170592</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017170683</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017172781</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018171138</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018172344</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018180690</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018181151</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018181657</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018181957</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019181409</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019182210</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019182220</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019182646</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019182742</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190309</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190485</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190563</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190928</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019191163</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019191634</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019191958</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020192256</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020192855</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020200073</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020200200</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020201256</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020201644</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021204320</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021204501</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021210057</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021210591</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021210957</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021211104</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021211349</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021211538</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021212624</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.210545</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.212631</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.220052</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100927</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11101427</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12120251</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12120962</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12121008</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13130384</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14131626</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14140002</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14141263</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016152781</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017162056</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190126</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021210273</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021211038</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021211967</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.220859</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.09090413</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.09090768</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.09091028</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100102</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11101193</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11101985</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11110602</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12100683</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12111148</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12111942</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12112108</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12112212</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12112723</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12121153</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13121194</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13121546</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13121838</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13121981</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13122324</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13122501</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13130231</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13130240</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13130625</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.13131306</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14131547</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14131732</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14132111</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14132118</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14132234</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14132415</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14132807</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14140028</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14140090</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14141129</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.14141398</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.15140058</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015140564</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015141550</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015141714</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015141727</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015141865</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015141922</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015142000</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015142556</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015142749</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015142920</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015150489</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015150566</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015150689</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015150947</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2015150959</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016142043</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016151155</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016152067</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2016152105</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017152311</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017160534</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017161607</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017162305</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017162610</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017162758</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2017171161</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018171333</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018171356</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018172229</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018172232</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018180796</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018181519</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2018182179</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019182122</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190187</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190304</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019190623</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2019191158</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020192056</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020192508</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020200575</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020200788</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020201745</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020201791</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020203275</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020203644</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2020203799</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021203516</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021210892</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.2021211833</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.212283</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.212430</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.213118</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.220742</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.212213</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.212482</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.221769</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.09090031</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.09090039</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.09090547</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.09090571</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.09090733</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.09090860</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.09091308</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.09091556</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.0990898</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10081220</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10090890</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10090924</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10090946</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10091010</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10091446</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10091447</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10091487</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10091502</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10091624</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10091808</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10091937</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10092240</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10092307</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10092437</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10092440</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100054</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100163</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100181</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100219</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100245</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100303</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100383</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100485</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100636</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100722</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100771</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10100986</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10101006</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10101090</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.10101254</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11091126</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11092467</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11100153</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11100600</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11100878</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11101372</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11101450</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11101503</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11101575</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11101643</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11102172</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11102226</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11102231</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11102313</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11103506</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11103532</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11103539</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11110053</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11110173</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11110192</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11110281</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11110372</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11110403</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11110447</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11110542</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.11111463</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12092468</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12102489</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12103540</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12110224</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12110411</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12110413</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12110802</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12110872</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12110990</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12111211</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12111337</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12111374</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12111459</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12111505</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1148/radiol.12111873</t>
+    <t>https://doi.org/10.1148/radiol.14140035</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14140293</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14140534</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14141308</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14141397</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14141420</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.14141568</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.15140079</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.15141215</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.15141327</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.15141483</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.15141864</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.15141918</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiol.2015141153</t>
   </si>
 </sst>
 </file>
@@ -3322,626 +2953,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
-    <hyperlink ref="A16" r:id="rId15"/>
-    <hyperlink ref="A17" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A26" r:id="rId25"/>
-    <hyperlink ref="A27" r:id="rId26"/>
-    <hyperlink ref="A28" r:id="rId27"/>
-    <hyperlink ref="A29" r:id="rId28"/>
-    <hyperlink ref="A30" r:id="rId29"/>
-    <hyperlink ref="A31" r:id="rId30"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="A33" r:id="rId32"/>
-    <hyperlink ref="A34" r:id="rId33"/>
-    <hyperlink ref="A35" r:id="rId34"/>
-    <hyperlink ref="A36" r:id="rId35"/>
-    <hyperlink ref="A37" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
-    <hyperlink ref="A39" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="A41" r:id="rId40"/>
-    <hyperlink ref="A42" r:id="rId41"/>
-    <hyperlink ref="A43" r:id="rId42"/>
-    <hyperlink ref="A44" r:id="rId43"/>
-    <hyperlink ref="A45" r:id="rId44"/>
-    <hyperlink ref="A46" r:id="rId45"/>
-    <hyperlink ref="A47" r:id="rId46"/>
-    <hyperlink ref="A48" r:id="rId47"/>
-    <hyperlink ref="A49" r:id="rId48"/>
-    <hyperlink ref="A50" r:id="rId49"/>
-    <hyperlink ref="A51" r:id="rId50"/>
-    <hyperlink ref="A52" r:id="rId51"/>
-    <hyperlink ref="A53" r:id="rId52"/>
-    <hyperlink ref="A54" r:id="rId53"/>
-    <hyperlink ref="A55" r:id="rId54"/>
-    <hyperlink ref="A56" r:id="rId55"/>
-    <hyperlink ref="A57" r:id="rId56"/>
-    <hyperlink ref="A58" r:id="rId57"/>
-    <hyperlink ref="A59" r:id="rId58"/>
-    <hyperlink ref="A60" r:id="rId59"/>
-    <hyperlink ref="A61" r:id="rId60"/>
-    <hyperlink ref="A62" r:id="rId61"/>
-    <hyperlink ref="A63" r:id="rId62"/>
-    <hyperlink ref="A64" r:id="rId63"/>
-    <hyperlink ref="A65" r:id="rId64"/>
-    <hyperlink ref="A66" r:id="rId65"/>
-    <hyperlink ref="A67" r:id="rId66"/>
-    <hyperlink ref="A68" r:id="rId67"/>
-    <hyperlink ref="A69" r:id="rId68"/>
-    <hyperlink ref="A70" r:id="rId69"/>
-    <hyperlink ref="A71" r:id="rId70"/>
-    <hyperlink ref="A72" r:id="rId71"/>
-    <hyperlink ref="A73" r:id="rId72"/>
-    <hyperlink ref="A74" r:id="rId73"/>
-    <hyperlink ref="A75" r:id="rId74"/>
-    <hyperlink ref="A76" r:id="rId75"/>
-    <hyperlink ref="A77" r:id="rId76"/>
-    <hyperlink ref="A78" r:id="rId77"/>
-    <hyperlink ref="A79" r:id="rId78"/>
-    <hyperlink ref="A80" r:id="rId79"/>
-    <hyperlink ref="A81" r:id="rId80"/>
-    <hyperlink ref="A82" r:id="rId81"/>
-    <hyperlink ref="A83" r:id="rId82"/>
-    <hyperlink ref="A84" r:id="rId83"/>
-    <hyperlink ref="A85" r:id="rId84"/>
-    <hyperlink ref="A86" r:id="rId85"/>
-    <hyperlink ref="A87" r:id="rId86"/>
-    <hyperlink ref="A88" r:id="rId87"/>
-    <hyperlink ref="A89" r:id="rId88"/>
-    <hyperlink ref="A90" r:id="rId89"/>
-    <hyperlink ref="A91" r:id="rId90"/>
-    <hyperlink ref="A92" r:id="rId91"/>
-    <hyperlink ref="A93" r:id="rId92"/>
-    <hyperlink ref="A94" r:id="rId93"/>
-    <hyperlink ref="A95" r:id="rId94"/>
-    <hyperlink ref="A96" r:id="rId95"/>
-    <hyperlink ref="A97" r:id="rId96"/>
-    <hyperlink ref="A98" r:id="rId97"/>
-    <hyperlink ref="A99" r:id="rId98"/>
-    <hyperlink ref="A100" r:id="rId99"/>
-    <hyperlink ref="A101" r:id="rId100"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A101"/>
@@ -4172,62 +3183,62 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -4982,97 +3993,97 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>156</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -5197,502 +4208,502 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>304</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>126</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -5804,7 +4815,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5817,12 +4828,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>396</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>397</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -5852,77 +4863,77 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>416</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -5977,1690 +4988,342 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>427</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>432</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>433</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
-    <hyperlink ref="A16" r:id="rId15"/>
-    <hyperlink ref="A17" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A26" r:id="rId25"/>
-    <hyperlink ref="A27" r:id="rId26"/>
-    <hyperlink ref="A28" r:id="rId27"/>
-    <hyperlink ref="A29" r:id="rId28"/>
-    <hyperlink ref="A30" r:id="rId29"/>
-    <hyperlink ref="A31" r:id="rId30"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="A33" r:id="rId32"/>
-    <hyperlink ref="A34" r:id="rId33"/>
-    <hyperlink ref="A35" r:id="rId34"/>
-    <hyperlink ref="A36" r:id="rId35"/>
-    <hyperlink ref="A37" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
-    <hyperlink ref="A39" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="A41" r:id="rId40"/>
-    <hyperlink ref="A42" r:id="rId41"/>
-    <hyperlink ref="A43" r:id="rId42"/>
-    <hyperlink ref="A44" r:id="rId43"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>476</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>477</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>480</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>481</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>482</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>483</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>492</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
-    <hyperlink ref="A16" r:id="rId15"/>
-    <hyperlink ref="A17" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A26" r:id="rId25"/>
-    <hyperlink ref="A27" r:id="rId26"/>
-    <hyperlink ref="A28" r:id="rId27"/>
-    <hyperlink ref="A29" r:id="rId28"/>
-    <hyperlink ref="A30" r:id="rId29"/>
-    <hyperlink ref="A31" r:id="rId30"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="A33" r:id="rId32"/>
-    <hyperlink ref="A34" r:id="rId33"/>
-    <hyperlink ref="A35" r:id="rId34"/>
-    <hyperlink ref="A36" r:id="rId35"/>
-    <hyperlink ref="A37" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
-    <hyperlink ref="A39" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="A41" r:id="rId40"/>
-    <hyperlink ref="A42" r:id="rId41"/>
-    <hyperlink ref="A43" r:id="rId42"/>
-    <hyperlink ref="A44" r:id="rId43"/>
-    <hyperlink ref="A45" r:id="rId44"/>
-    <hyperlink ref="A46" r:id="rId45"/>
-    <hyperlink ref="A47" r:id="rId46"/>
-    <hyperlink ref="A48" r:id="rId47"/>
-    <hyperlink ref="A49" r:id="rId48"/>
-    <hyperlink ref="A50" r:id="rId49"/>
-    <hyperlink ref="A51" r:id="rId50"/>
-    <hyperlink ref="A52" r:id="rId51"/>
-    <hyperlink ref="A53" r:id="rId52"/>
-    <hyperlink ref="A54" r:id="rId53"/>
-    <hyperlink ref="A55" r:id="rId54"/>
-    <hyperlink ref="A56" r:id="rId55"/>
-    <hyperlink ref="A57" r:id="rId56"/>
-    <hyperlink ref="A58" r:id="rId57"/>
-    <hyperlink ref="A59" r:id="rId58"/>
-    <hyperlink ref="A60" r:id="rId59"/>
-    <hyperlink ref="A61" r:id="rId60"/>
-    <hyperlink ref="A62" r:id="rId61"/>
-    <hyperlink ref="A63" r:id="rId62"/>
-    <hyperlink ref="A64" r:id="rId63"/>
-    <hyperlink ref="A65" r:id="rId64"/>
-    <hyperlink ref="A66" r:id="rId65"/>
-    <hyperlink ref="A67" r:id="rId66"/>
-    <hyperlink ref="A68" r:id="rId67"/>
-    <hyperlink ref="A69" r:id="rId68"/>
-    <hyperlink ref="A70" r:id="rId69"/>
-    <hyperlink ref="A71" r:id="rId70"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A86"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
-        <v>573</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>574</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>575</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>576</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>577</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>578</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>579</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>580</v>
+        <v>463</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>581</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>582</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>583</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>584</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>585</v>
+        <v>468</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>586</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>587</v>
+        <v>470</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
-    <hyperlink ref="A16" r:id="rId15"/>
-    <hyperlink ref="A17" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A26" r:id="rId25"/>
-    <hyperlink ref="A27" r:id="rId26"/>
-    <hyperlink ref="A28" r:id="rId27"/>
-    <hyperlink ref="A29" r:id="rId28"/>
-    <hyperlink ref="A30" r:id="rId29"/>
-    <hyperlink ref="A31" r:id="rId30"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="A33" r:id="rId32"/>
-    <hyperlink ref="A34" r:id="rId33"/>
-    <hyperlink ref="A35" r:id="rId34"/>
-    <hyperlink ref="A36" r:id="rId35"/>
-    <hyperlink ref="A37" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
-    <hyperlink ref="A39" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="A41" r:id="rId40"/>
-    <hyperlink ref="A42" r:id="rId41"/>
-    <hyperlink ref="A43" r:id="rId42"/>
-    <hyperlink ref="A44" r:id="rId43"/>
-    <hyperlink ref="A45" r:id="rId44"/>
-    <hyperlink ref="A46" r:id="rId45"/>
-    <hyperlink ref="A47" r:id="rId46"/>
-    <hyperlink ref="A48" r:id="rId47"/>
-    <hyperlink ref="A49" r:id="rId48"/>
-    <hyperlink ref="A50" r:id="rId49"/>
-    <hyperlink ref="A51" r:id="rId50"/>
-    <hyperlink ref="A52" r:id="rId51"/>
-    <hyperlink ref="A53" r:id="rId52"/>
-    <hyperlink ref="A54" r:id="rId53"/>
-    <hyperlink ref="A55" r:id="rId54"/>
-    <hyperlink ref="A56" r:id="rId55"/>
-    <hyperlink ref="A57" r:id="rId56"/>
-    <hyperlink ref="A58" r:id="rId57"/>
-    <hyperlink ref="A59" r:id="rId58"/>
-    <hyperlink ref="A60" r:id="rId59"/>
-    <hyperlink ref="A61" r:id="rId60"/>
-    <hyperlink ref="A62" r:id="rId61"/>
-    <hyperlink ref="A63" r:id="rId62"/>
-    <hyperlink ref="A64" r:id="rId63"/>
-    <hyperlink ref="A65" r:id="rId64"/>
-    <hyperlink ref="A66" r:id="rId65"/>
-    <hyperlink ref="A67" r:id="rId66"/>
-    <hyperlink ref="A68" r:id="rId67"/>
-    <hyperlink ref="A69" r:id="rId68"/>
-    <hyperlink ref="A70" r:id="rId69"/>
-    <hyperlink ref="A71" r:id="rId70"/>
-    <hyperlink ref="A72" r:id="rId71"/>
-    <hyperlink ref="A73" r:id="rId72"/>
-    <hyperlink ref="A74" r:id="rId73"/>
-    <hyperlink ref="A75" r:id="rId74"/>
-    <hyperlink ref="A76" r:id="rId75"/>
-    <hyperlink ref="A77" r:id="rId76"/>
-    <hyperlink ref="A78" r:id="rId77"/>
-    <hyperlink ref="A79" r:id="rId78"/>
-    <hyperlink ref="A80" r:id="rId79"/>
-    <hyperlink ref="A81" r:id="rId80"/>
-    <hyperlink ref="A82" r:id="rId81"/>
-    <hyperlink ref="A83" r:id="rId82"/>
-    <hyperlink ref="A84" r:id="rId83"/>
-    <hyperlink ref="A85" r:id="rId84"/>
-    <hyperlink ref="A86" r:id="rId85"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
-    <hyperlink ref="A16" r:id="rId15"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A99"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
-        <v>681</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>682</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>683</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>684</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>685</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>686</v>
+        <v>476</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>687</v>
+        <v>477</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>688</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>689</v>
+        <v>479</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>690</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>691</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>692</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>693</v>
+        <v>483</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>694</v>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -7763,6 +5426,1248 @@
     <hyperlink ref="A97" r:id="rId96"/>
     <hyperlink ref="A98" r:id="rId97"/>
     <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
